--- a/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ProjectGroups\LifeCycle\Pilot\datashield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166D740-34A9-D349-984C-EB05C5456319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
   <si>
     <t>table</t>
   </si>
@@ -35,9 +36,6 @@
   </si>
   <si>
     <t>label:en</t>
-  </si>
-  <si>
-    <t>alias</t>
   </si>
   <si>
     <t>integer</t>
@@ -411,12 +409,15 @@
   </si>
   <si>
     <t>1_0_yearly_repeated_measures</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,8 +497,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -955,43 +956,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -1045,673 +1040,531 @@
       <c r="BE1"/>
       <c r="BF1"/>
       <c r="BG1"/>
-      <c r="BH1"/>
-      <c r="BI1"/>
-    </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36"/>
+      <c r="E36"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1723,32 +1576,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1756,12 +1609,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>101</v>
@@ -1770,17 +1623,17 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>102</v>
@@ -1789,17 +1642,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>103</v>
@@ -1808,17 +1661,17 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>104</v>
@@ -1827,17 +1680,17 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>105</v>
@@ -1846,17 +1699,17 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>106</v>
@@ -1865,17 +1718,17 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>107</v>
@@ -1884,17 +1737,17 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
         <v>108</v>
@@ -1903,17 +1756,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>109</v>
@@ -1922,17 +1775,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
         <v>110</v>
@@ -1941,17 +1794,17 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4">
         <v>111</v>
@@ -1960,17 +1813,17 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
         <v>112</v>
@@ -1979,17 +1832,17 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4">
         <v>113</v>
@@ -1998,17 +1851,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4">
         <v>114</v>
@@ -2017,17 +1870,17 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4">
         <v>115</v>
@@ -2036,17 +1889,17 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4">
         <v>116</v>
@@ -2055,17 +1908,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4">
         <v>117</v>
@@ -2074,17 +1927,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4">
         <v>118</v>
@@ -2093,17 +1946,17 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2112,17 +1965,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -2131,17 +1984,17 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -2150,17 +2003,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -2169,17 +2022,17 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4">
         <v>3</v>
@@ -2188,17 +2041,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4">
         <v>4</v>
@@ -2207,17 +2060,17 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -2226,17 +2079,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4">
         <v>6</v>
@@ -2245,17 +2098,17 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2264,17 +2117,17 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -2283,17 +2136,17 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -2302,17 +2155,17 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4">
         <v>4</v>
@@ -2321,17 +2174,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4">
         <v>5</v>
@@ -2340,17 +2193,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4">
         <v>6</v>
@@ -2359,17 +2212,17 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
@@ -2378,17 +2231,17 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4">
         <v>8</v>
@@ -2397,17 +2250,17 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4">
         <v>9</v>
@@ -2416,17 +2269,17 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2435,17 +2288,17 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2454,17 +2307,17 @@
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -2473,17 +2326,17 @@
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
@@ -2492,17 +2345,17 @@
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2511,17 +2364,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -2530,17 +2383,17 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -2549,17 +2402,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -2568,17 +2421,17 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -2587,17 +2440,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -2606,17 +2459,17 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2625,17 +2478,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
@@ -2644,17 +2497,17 @@
         <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -2663,17 +2516,17 @@
         <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
         <v>4</v>
@@ -2682,17 +2535,17 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2701,17 +2554,17 @@
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2720,17 +2573,17 @@
         <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
@@ -2739,17 +2592,17 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="4">
         <v>4</v>
@@ -2758,17 +2611,17 @@
         <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4">
         <v>5</v>
@@ -2777,17 +2630,17 @@
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="4">
         <v>6</v>
@@ -2796,17 +2649,17 @@
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2815,17 +2668,17 @@
         <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
@@ -2834,17 +2687,17 @@
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
@@ -2853,17 +2706,17 @@
         <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2872,17 +2725,17 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2891,17 +2744,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4">
         <v>2</v>
@@ -2910,17 +2763,17 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
@@ -2929,17 +2782,17 @@
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="4">
         <v>4</v>
@@ -2948,17 +2801,17 @@
         <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
@@ -2967,17 +2820,17 @@
         <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4">
         <v>6</v>
@@ -2986,17 +2839,17 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="4">
         <v>7</v>
@@ -3005,17 +2858,17 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="4">
         <v>8</v>
@@ -3024,17 +2877,17 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="4">
         <v>9</v>
@@ -3043,17 +2896,17 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -3062,17 +2915,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -3081,17 +2934,17 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -3100,17 +2953,17 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -3119,17 +2972,17 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4">
         <v>4</v>
@@ -3138,17 +2991,17 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
@@ -3157,17 +3010,17 @@
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -3176,17 +3029,17 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
@@ -3195,17 +3048,17 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="4">
         <v>4</v>
@@ -3214,17 +3067,17 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -3233,17 +3086,17 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -3252,17 +3105,17 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="4">
         <v>7</v>
@@ -3271,17 +3124,17 @@
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="4">
         <v>8</v>
@@ -3290,17 +3143,17 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="4">
         <v>9</v>
@@ -3309,17 +3162,17 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -3328,17 +3181,17 @@
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -3347,17 +3200,17 @@
         <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C86" s="4">
         <v>2</v>
@@ -3366,17 +3219,17 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -3385,17 +3238,17 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C88" s="4">
         <v>4</v>
@@ -3404,17 +3257,17 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -3423,17 +3276,17 @@
         <v>0</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" s="4">
         <v>2</v>
@@ -3442,17 +3295,17 @@
         <v>0</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -3461,17 +3314,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -3480,17 +3333,17 @@
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -3499,17 +3352,17 @@
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -3518,17 +3371,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C95" s="4">
         <v>4</v>
@@ -3537,17 +3390,17 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -3556,17 +3409,17 @@
         <v>0</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="4">
         <v>2</v>
@@ -3575,17 +3428,17 @@
         <v>0</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="4">
         <v>3</v>
@@ -3594,17 +3447,17 @@
         <v>0</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -3613,17 +3466,17 @@
         <v>0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -3632,17 +3485,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
@@ -3651,17 +3504,17 @@
         <v>0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" s="4">
         <v>4</v>
@@ -3670,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166D740-34A9-D349-984C-EB05C5456319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD70253-F34E-984C-88E3-E82A6F7A6E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="129">
   <si>
     <t>table</t>
   </si>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>1_0_yearly_repeated_measures</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
 </sst>
 </file>
@@ -960,7 +957,7 @@
   <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -983,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD70253-F34E-984C-88E3-E82A6F7A6E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849EB5F7-7A7F-FC44-AA60-84B2607C8377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
   <si>
     <t>table</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>1_0_yearly_repeated_measures</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9191d99891275c14/Documents/Angela/LifeCycle/Manual/WP1  package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857D9A8-B8FC-8342-B51E-9D1DAB891052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC37B182-6625-41EE-8336-4843BE84CD51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -122,21 +122,6 @@
     <t>age_years</t>
   </si>
   <si>
-    <t>mother_id</t>
-  </si>
-  <si>
-    <t>preg_no</t>
-  </si>
-  <si>
-    <t>Pregnancy number</t>
-  </si>
-  <si>
-    <t>child_no</t>
-  </si>
-  <si>
-    <t>Child number</t>
-  </si>
-  <si>
     <t>cohab_</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>Inactive/other (receiving benefits or pension etc.)</t>
   </si>
   <si>
-    <t>coh_country</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -348,15 +330,6 @@
   </si>
   <si>
     <t>Unique identifier for child</t>
-  </si>
-  <si>
-    <t>Unique identifier for mother</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Cohort</t>
   </si>
   <si>
     <t>Cohabitation status at birth</t>
@@ -946,22 +919,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG36"/>
+  <dimension ref="A1:BG31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -972,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1030,7 +1003,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1041,11 +1014,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1056,11 +1029,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1071,327 +1044,327 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1400,14 +1373,14 @@
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>120</v>
+      <c r="D26" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>61</v>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -1415,14 +1388,14 @@
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>116</v>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -1430,14 +1403,14 @@
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>117</v>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -1445,14 +1418,14 @@
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>118</v>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -1460,14 +1433,14 @@
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>119</v>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -1475,85 +1448,10 @@
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>66</v>
+      <c r="D31" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1568,19 +1466,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="16.36328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1591,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1692,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1846,9 +1744,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1857,12 +1755,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -1871,12 +1769,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1885,12 +1783,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -1899,12 +1797,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -1913,12 +1811,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -1927,12 +1825,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1941,12 +1839,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -1955,12 +1853,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -1969,12 +1867,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -1983,12 +1881,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -1997,12 +1895,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -2011,12 +1909,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -2025,12 +1923,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
@@ -2039,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
@@ -2053,12 +1951,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
@@ -2067,12 +1965,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>9</v>
@@ -2081,12 +1979,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -2095,12 +1993,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -2109,12 +2007,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -2123,12 +2021,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -2137,12 +2035,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2151,12 +2049,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -2165,12 +2063,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -2179,12 +2077,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -2193,12 +2091,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -2207,12 +2105,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3">
         <v>6</v>
@@ -2221,12 +2119,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2238,9 +2136,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -2252,9 +2150,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
@@ -2266,9 +2164,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
@@ -2280,9 +2178,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2291,12 +2189,12 @@
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -2305,12 +2203,12 @@
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -2319,12 +2217,12 @@
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3">
         <v>4</v>
@@ -2333,12 +2231,12 @@
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -2347,12 +2245,12 @@
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>6</v>
@@ -2361,12 +2259,12 @@
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2378,9 +2276,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -2392,9 +2290,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
@@ -2406,9 +2304,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -2420,9 +2318,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -2431,12 +2329,12 @@
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
@@ -2445,12 +2343,12 @@
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
@@ -2459,12 +2357,12 @@
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
@@ -2473,12 +2371,12 @@
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B65" s="3">
         <v>5</v>
@@ -2487,12 +2385,12 @@
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B66" s="3">
         <v>6</v>
@@ -2501,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
@@ -2515,12 +2413,12 @@
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B68" s="3">
         <v>8</v>
@@ -2529,12 +2427,12 @@
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B69" s="3">
         <v>9</v>
@@ -2543,12 +2441,12 @@
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -2557,12 +2455,12 @@
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -2574,9 +2472,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -2588,9 +2486,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
@@ -2602,9 +2500,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
@@ -2616,9 +2514,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -2627,12 +2525,12 @@
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
@@ -2641,12 +2539,12 @@
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
@@ -2655,12 +2553,12 @@
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
@@ -2669,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3">
         <v>5</v>
@@ -2683,12 +2581,12 @@
         <v>0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B80" s="3">
         <v>6</v>
@@ -2697,12 +2595,12 @@
         <v>0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
@@ -2711,12 +2609,12 @@
         <v>0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B82" s="3">
         <v>8</v>
@@ -2725,12 +2623,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B83" s="3">
         <v>9</v>
@@ -2739,12 +2637,12 @@
         <v>0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -2753,12 +2651,12 @@
         <v>0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -2770,9 +2668,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -2784,9 +2682,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
@@ -2798,9 +2696,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B88" s="3">
         <v>4</v>
@@ -2812,9 +2710,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -2823,12 +2721,12 @@
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
@@ -2837,12 +2735,12 @@
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
@@ -2851,12 +2749,12 @@
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -2868,9 +2766,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
@@ -2882,9 +2780,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
@@ -2896,9 +2794,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B95" s="3">
         <v>4</v>
@@ -2910,9 +2808,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2921,12 +2819,12 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
@@ -2935,12 +2833,12 @@
         <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
@@ -2949,12 +2847,12 @@
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -2966,9 +2864,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
@@ -2980,9 +2878,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
@@ -2994,9 +2892,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B102" s="3">
         <v>4</v>
